--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADD6FD1-83A8-490D-B0C1-60756877C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65616156-E091-48EC-9736-402E7CBA2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2050,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3498,7 +3498,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E11" s="24">
         <v>44572</v>
@@ -3741,7 +3741,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="24">
         <v>44579</v>
@@ -5426,7 +5426,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E19" s="24">
         <v>44586</v>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65616156-E091-48EC-9736-402E7CBA2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB264591-1752-403A-A6CF-028855B22A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Profil administrateur</t>
   </si>
   <si>
-    <t>Création des utilisateurs</t>
-  </si>
-  <si>
     <t>Visualisation des utilisateurs</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>FIN DE PROJET LE 15 AVRIL 2022</t>
+  </si>
+  <si>
+    <t>Création du profil administrateur</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>10</v>
@@ -2107,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>11</v>
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>12</v>
@@ -2772,7 +2772,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="24"/>
@@ -3009,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="53">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="53">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="53">
         <v>1</v>
@@ -3738,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="53">
         <v>1</v>
@@ -3981,7 +3981,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="53">
         <v>1</v>
@@ -4221,10 +4221,10 @@
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="24"/>
@@ -4458,10 +4458,10 @@
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="53">
         <v>0</v>
@@ -4699,10 +4699,10 @@
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="53">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="24"/>
@@ -5180,7 +5180,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="53">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="53">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="24">
         <v>44586</v>
@@ -5661,10 +5661,10 @@
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="53">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="24"/>
@@ -6139,10 +6139,10 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="50" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="53">
         <v>0</v>
@@ -6380,10 +6380,10 @@
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="53">
         <v>0</v>
@@ -6621,10 +6621,10 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="53">
         <v>0</v>
@@ -6862,10 +6862,10 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="53">
         <v>0</v>
@@ -7103,10 +7103,10 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="24"/>
@@ -7340,10 +7340,10 @@
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="53">
         <v>0</v>
@@ -7581,10 +7581,10 @@
     <row r="28" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="53">
         <v>0</v>
@@ -7822,10 +7822,10 @@
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="53">
         <v>0</v>
@@ -8063,10 +8063,10 @@
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="53">
         <v>0</v>
@@ -8304,10 +8304,10 @@
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="53">
         <v>0</v>
@@ -8545,10 +8545,10 @@
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
       <c r="B32" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="53"/>
       <c r="E32" s="24"/>
@@ -8781,13 +8781,13 @@
     </row>
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="53">
         <v>0</v>
@@ -9025,10 +9025,10 @@
     <row r="34" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="53">
         <v>0</v>
@@ -9266,10 +9266,10 @@
     <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="53">
         <v>0</v>
@@ -9507,10 +9507,10 @@
     <row r="36" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="53">
         <v>0</v>
@@ -9748,10 +9748,10 @@
     <row r="37" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="53">
         <v>0</v>
@@ -9989,10 +9989,10 @@
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
       <c r="B38" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="53"/>
       <c r="E38" s="24"/>
@@ -10226,10 +10226,10 @@
     <row r="39" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="53">
         <v>0</v>
@@ -10467,10 +10467,10 @@
     <row r="40" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="53">
         <v>0</v>
@@ -10708,10 +10708,10 @@
     <row r="41" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="53">
         <v>0</v>
@@ -10949,10 +10949,10 @@
     <row r="42" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="53">
         <v>0</v>
@@ -11190,10 +11190,10 @@
     <row r="43" spans="1:63" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="53">
         <v>0</v>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB264591-1752-403A-A6CF-028855B22A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ED598-19FF-40AB-B255-77D9D42099C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5426,7 +5426,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="53">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="24">
         <v>44586</v>
@@ -5667,7 +5667,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="24">
         <v>44586</v>
@@ -6145,7 +6145,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="53">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E22" s="24">
         <v>44593</v>
@@ -6386,7 +6386,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="24">
         <v>44593</v>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ED598-19FF-40AB-B255-77D9D42099C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5768C47D-AE1A-49D8-B7AB-82B3122C2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Création du profil administrateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout, modification, suppression des utilisateurs  </t>
   </si>
 </sst>
 </file>
@@ -1292,19 +1295,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -1457,6 +1447,19 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1758,8 +1761,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
-  <autoFilter ref="B6:F43" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
+  <autoFilter ref="B6:F44" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1767,9 +1770,9 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
@@ -2048,10 +2051,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6145,7 +6148,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E22" s="24">
         <v>44593</v>
@@ -6380,257 +6383,89 @@
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="50" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C23" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="53">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="24">
         <v>44593</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK23" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="27"/>
+      <c r="BJ23" s="27"/>
+      <c r="BK23" s="27"/>
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" s="53">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="24">
-        <v>44600</v>
+        <v>44593</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="20"/>
@@ -6862,10 +6697,10 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" s="53">
         <v>0</v>
@@ -7102,14 +6937,18 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44600</v>
+      </c>
       <c r="F26" s="45"/>
       <c r="G26" s="20"/>
       <c r="H26" s="27" t="str">
@@ -7339,18 +7178,14 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="53">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>44628</v>
-      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="45"/>
       <c r="G27" s="20"/>
       <c r="H27" s="27" t="str">
@@ -7578,10 +7413,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>43</v>
@@ -7819,10 +7654,10 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>43</v>
@@ -7831,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="24">
-        <v>44642</v>
+        <v>44628</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="20"/>
@@ -8063,7 +7898,7 @@
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="54" t="s">
         <v>43</v>
@@ -8304,7 +8139,7 @@
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="54" t="s">
         <v>43</v>
@@ -8313,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="24">
-        <v>44656</v>
+        <v>44642</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="20"/>
@@ -8544,14 +8379,18 @@
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
-      <c r="B32" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="24"/>
+      <c r="B32" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44656</v>
+      </c>
       <c r="F32" s="45"/>
       <c r="G32" s="20"/>
       <c r="H32" s="27" t="str">
@@ -8780,21 +8619,15 @@
       </c>
     </row>
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="53">
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
-        <v>44600</v>
-      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="45"/>
       <c r="G33" s="20"/>
       <c r="H33" s="27" t="str">
@@ -9022,10 +8855,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B34" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>42</v>
@@ -9263,10 +9098,10 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="54" t="s">
         <v>42</v>
@@ -9275,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="24">
-        <v>44628</v>
+        <v>44600</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="20"/>
@@ -9504,10 +9339,10 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="54" t="s">
         <v>42</v>
@@ -9516,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="24">
-        <v>44635</v>
+        <v>44628</v>
       </c>
       <c r="F36" s="45"/>
       <c r="G36" s="20"/>
@@ -9745,10 +9580,10 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>42</v>
@@ -9757,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="24">
-        <v>44642</v>
+        <v>44635</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="20"/>
@@ -9986,16 +9821,20 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
-      <c r="B38" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="53">
+        <v>0</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44642</v>
+      </c>
       <c r="F38" s="45"/>
       <c r="G38" s="20"/>
       <c r="H38" s="27" t="str">
@@ -10223,20 +10062,16 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
-      <c r="B39" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="53">
-        <v>0</v>
-      </c>
-      <c r="E39" s="24">
-        <v>44628</v>
-      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="45"/>
       <c r="G39" s="20"/>
       <c r="H39" s="27" t="str">
@@ -10464,10 +10299,10 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="54" t="s">
         <v>41</v>
@@ -10476,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="24">
-        <v>44635</v>
+        <v>44628</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="20"/>
@@ -10705,10 +10540,10 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="54" t="s">
         <v>41</v>
@@ -10717,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="24">
-        <v>44642</v>
+        <v>44635</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="20"/>
@@ -10946,10 +10781,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>41</v>
@@ -10958,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="24">
-        <v>44649</v>
+        <v>44642</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="20"/>
@@ -11187,10 +11022,10 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:63" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>41</v>
@@ -11199,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="24">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="20"/>
@@ -11428,80 +11263,321 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:63" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A44" s="12"/>
+      <c r="B44" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="53">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24">
+        <v>44656</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK44" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="26"/>
-      <c r="AX44" s="26"/>
-      <c r="AY44" s="26"/>
-      <c r="AZ44" s="26"/>
-      <c r="BA44" s="26"/>
-      <c r="BB44" s="26"/>
-      <c r="BC44" s="26"/>
-      <c r="BD44" s="26"/>
-      <c r="BE44" s="26"/>
-      <c r="BF44" s="26"/>
-      <c r="BG44" s="26"/>
-      <c r="BH44" s="26"/>
-      <c r="BI44" s="26"/>
-      <c r="BJ44" s="26"/>
-      <c r="BK44" s="26"/>
-    </row>
-    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="5"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
+      <c r="AR45" s="26"/>
+      <c r="AS45" s="26"/>
+      <c r="AT45" s="26"/>
+      <c r="AU45" s="26"/>
+      <c r="AV45" s="26"/>
+      <c r="AW45" s="26"/>
+      <c r="AX45" s="26"/>
+      <c r="AY45" s="26"/>
+      <c r="AZ45" s="26"/>
+      <c r="BA45" s="26"/>
+      <c r="BB45" s="26"/>
+      <c r="BC45" s="26"/>
+      <c r="BD45" s="26"/>
+      <c r="BE45" s="26"/>
+      <c r="BF45" s="26"/>
+      <c r="BG45" s="26"/>
+      <c r="BH45" s="26"/>
+      <c r="BI45" s="26"/>
+      <c r="BJ45" s="26"/>
+      <c r="BK45" s="26"/>
     </row>
     <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11510,7 +11586,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D25">
+  <conditionalFormatting sqref="D6:D26">
     <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11524,22 +11600,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK25 H37:BK41">
-    <cfRule type="expression" dxfId="12" priority="134">
+  <conditionalFormatting sqref="H8:BK26 H38:BK42">
+    <cfRule type="expression" dxfId="9" priority="134">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK43">
-    <cfRule type="expression" dxfId="11" priority="67" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BK44">
+    <cfRule type="expression" dxfId="8" priority="67" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="10" priority="57">
+    <cfRule type="expression" dxfId="7" priority="57">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D27">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11553,22 +11629,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:BK26">
-    <cfRule type="expression" dxfId="9" priority="55">
+  <conditionalFormatting sqref="H27:BK27">
+    <cfRule type="expression" dxfId="6" priority="55">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:BK27">
-    <cfRule type="expression" dxfId="8" priority="51">
+  <conditionalFormatting sqref="H28:BK28">
+    <cfRule type="expression" dxfId="5" priority="51">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:BK29">
-    <cfRule type="expression" dxfId="7" priority="47">
+  <conditionalFormatting sqref="H29:BK30">
+    <cfRule type="expression" dxfId="4" priority="47">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11582,27 +11658,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:BK35">
-    <cfRule type="expression" dxfId="6" priority="35">
+  <conditionalFormatting sqref="H31:BK36">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:BK36">
-    <cfRule type="expression" dxfId="5" priority="32">
+  <conditionalFormatting sqref="H37:BK37">
+    <cfRule type="expression" dxfId="2" priority="32">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:BK44">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:BK43">
-    <cfRule type="expression" dxfId="4" priority="29">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:BK42">
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>H$5&lt;=Aujourd’hui</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11616,7 +11692,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11630,7 +11706,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11644,7 +11720,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11658,7 +11734,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11672,7 +11748,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11686,7 +11762,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11700,7 +11776,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11714,7 +11790,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11728,7 +11804,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11742,7 +11818,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11756,7 +11832,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11770,7 +11846,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11784,7 +11860,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11798,7 +11874,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11812,7 +11888,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11886,7 +11962,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D25</xm:sqref>
+          <xm:sqref>D6:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90808BBC-576F-4D03-BE95-19875F546201}">
@@ -11901,7 +11977,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5581F5E-0A2A-4D3B-B3AC-05115635E1AF}">
@@ -11916,7 +11992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{043EBCC9-B287-4EA6-BDA9-2E16BDC9759A}">
@@ -11931,7 +12007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBFB06E8-A510-441F-8809-EDDE9DD265F3}">
@@ -11946,7 +12022,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{171AE085-3B40-4198-B3A3-59D78DC95E2F}">
@@ -11961,7 +12037,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
+          <xm:sqref>D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3C692EA1-84A7-4370-A7FC-FC1CE3BE3892}">
@@ -11976,7 +12052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B560568D-7CD8-447D-919A-F28DFB9AF6F2}">
@@ -11991,7 +12067,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8DBBAEC0-4368-4060-A01E-63F7848EBD59}">
@@ -12006,7 +12082,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9645451D-B130-404F-9E48-A55C31ED88B0}">
@@ -12021,7 +12097,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{691A6434-099B-4903-A255-EA19A56B307A}">
@@ -12036,7 +12112,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2905172-3481-4CD0-A753-AE691AF524FE}">
@@ -12051,7 +12127,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1754A88-515C-4F96-8790-1A735446C821}">
@@ -12066,7 +12142,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1E97FEDC-51B3-46F5-8E26-D2A828CCBF5F}">
@@ -12081,7 +12157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B15BCFE3-A0D6-4EDD-B84F-B9C426FCE793}">
@@ -12096,7 +12172,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D707E3CF-0745-473D-92EE-EE111CA40965}">
@@ -12111,7 +12187,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22B7C3E7-2D70-48A1-A6D1-800C4BE90DEE}">
@@ -12126,7 +12202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51A57E48-4C06-46CF-85E4-B0DC3E5346C6}">
@@ -12141,7 +12217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7F2D11D8-92EC-4AC0-8701-9572500C5E36}">
@@ -12156,7 +12232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="58" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -12194,7 +12270,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H26:BK26</xm:sqref>
+          <xm:sqref>H27:BK27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="52" id="{27411EE4-BF73-456E-BC51-9B25067F61E9}">
@@ -12213,7 +12289,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H27:BK27</xm:sqref>
+          <xm:sqref>H28:BK28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{6D859398-D171-4E0B-88C4-06D717EF3E19}">
@@ -12232,7 +12308,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H28:BK29</xm:sqref>
+          <xm:sqref>H29:BK30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="36" id="{22111A0C-129B-4AC1-B5E3-2471D54CF89B}">
@@ -12251,7 +12327,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H30:BK35</xm:sqref>
+          <xm:sqref>H31:BK36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="33" id="{0A5048B7-6349-454C-B199-58F5997EACE0}">
@@ -12270,7 +12346,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H36:BK36</xm:sqref>
+          <xm:sqref>H37:BK37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="30" id="{588837EF-B611-43B4-BF44-6E6E3217648A}">
@@ -12289,7 +12365,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H43:BK43</xm:sqref>
+          <xm:sqref>H44:BK44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="21" id="{C723BF28-69C0-4A12-BCFF-910A4C9C9732}">
@@ -12308,7 +12384,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H42:BK42</xm:sqref>
+          <xm:sqref>H43:BK43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="157" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -12327,7 +12403,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H7:BK25</xm:sqref>
+          <xm:sqref>H7:BK26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="162" id="{71A51038-DEFD-46FF-9963-539D40E3E6AA}">
@@ -12346,7 +12422,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H37:BK41</xm:sqref>
+          <xm:sqref>H38:BK42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5768C47D-AE1A-49D8-B7AB-82B3122C2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDE5B5-E2D2-4D66-B350-385597FEC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1295,6 +1295,19 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -1447,19 +1460,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1770,9 +1770,9 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
@@ -2053,8 +2053,8 @@
   </sheetPr>
   <dimension ref="A1:BK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5429,7 +5429,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="53">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="24">
         <v>44586</v>
@@ -11601,17 +11601,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK26 H38:BK42">
-    <cfRule type="expression" dxfId="9" priority="134">
+    <cfRule type="expression" dxfId="12" priority="134">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK44">
-    <cfRule type="expression" dxfId="8" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="67" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="7" priority="57">
+    <cfRule type="expression" dxfId="10" priority="57">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11630,17 +11630,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:BK27">
-    <cfRule type="expression" dxfId="6" priority="55">
+    <cfRule type="expression" dxfId="9" priority="55">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:BK28">
-    <cfRule type="expression" dxfId="5" priority="51">
+    <cfRule type="expression" dxfId="8" priority="51">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:BK30">
-    <cfRule type="expression" dxfId="4" priority="47">
+    <cfRule type="expression" dxfId="7" priority="47">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11659,22 +11659,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:BK36">
-    <cfRule type="expression" dxfId="3" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:BK37">
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="5" priority="32">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:BK44">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="4" priority="29">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:BK43">
-    <cfRule type="expression" dxfId="0" priority="20">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDE5B5-E2D2-4D66-B350-385597FEC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C2F2D8-FBF7-4074-92AB-ED7086DE49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -223,21 +223,6 @@
     <t>Profil administratif</t>
   </si>
   <si>
-    <t>Création du profil gestionnaire de stock</t>
-  </si>
-  <si>
-    <t>Ajout, modification, suppression de produit</t>
-  </si>
-  <si>
-    <t>Fiche de toxicité des produits</t>
-  </si>
-  <si>
-    <t>Gestion de commande des stocks (entrées et sorties)</t>
-  </si>
-  <si>
-    <t>Envoie de mail (notification) quand le stock principal est faible</t>
-  </si>
-  <si>
     <t>Profil infirmière</t>
   </si>
   <si>
@@ -264,6 +249,24 @@
   <si>
     <t xml:space="preserve">Ajout, modification, suppression des utilisateurs  </t>
   </si>
+  <si>
+    <t>Création du profil administratif</t>
+  </si>
+  <si>
+    <t>Ajout du service de prise de rendez-vous</t>
+  </si>
+  <si>
+    <t>Visibilité des disponibilités des médecins </t>
+  </si>
+  <si>
+    <t>Possibilité de créer le dossier d’un patient si non renseigné</t>
+  </si>
+  <si>
+    <t>Enclencher une hospitalisation avec un traitement</t>
+  </si>
+  <si>
+    <t>Valider le traitement proposé par une infirmière à un nouveau patient hospitalisé</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -492,6 +495,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1071,7 +1081,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1222,6 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1702,7 +1713,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="6"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="17"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1761,8 +1772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
-  <autoFilter ref="B6:F44" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F45" totalsRowShown="0">
+  <autoFilter ref="B6:F45" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2051,16 +2062,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK47"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" customWidth="1"/>
+    <col min="2" max="2" width="47.06640625" customWidth="1"/>
     <col min="3" max="3" width="20.53125" customWidth="1"/>
     <col min="4" max="4" width="12.796875" customWidth="1"/>
     <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
@@ -2090,14 +2101,14 @@
       <c r="B2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61">
         <v>44565</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="62"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -2112,12 +2123,12 @@
       <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="36">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
@@ -2131,12 +2142,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="37">
         <v>1</v>
       </c>
@@ -2166,7 +2177,7 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(V5,"mmmm")=O4,TEXT(V5,"mmmm")=H4),"",TEXT(V5,"mmmm"))</f>
-        <v/>
+        <v>février</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -2186,7 +2197,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v>février</v>
+        <v/>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2206,7 +2217,7 @@
       <c r="AW4" s="17"/>
       <c r="AX4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AX5,"mmmm")=AQ4,TEXT(AX5,"mmmm")=AJ4,TEXT(AX5,"mmmm")=AC4,TEXT(AX5,"mmmm")=V4),"",TEXT(AX5,"mmmm"))</f>
-        <v/>
+        <v>mars</v>
       </c>
       <c r="AY4" s="17"/>
       <c r="AZ4" s="17"/>
@@ -2233,227 +2244,227 @@
       <c r="G5" s="32"/>
       <c r="H5" s="46">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44571</v>
+        <v>44582</v>
       </c>
       <c r="I5" s="47">
         <f ca="1">H5+1</f>
-        <v>44572</v>
+        <v>44583</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44573</v>
+        <v>44584</v>
       </c>
       <c r="K5" s="48">
         <f ca="1">J5+1</f>
-        <v>44574</v>
+        <v>44585</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44575</v>
+        <v>44586</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44576</v>
+        <v>44587</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44577</v>
+        <v>44588</v>
       </c>
       <c r="O5" s="48">
         <f ca="1">N5+1</f>
-        <v>44578</v>
+        <v>44589</v>
       </c>
       <c r="P5" s="48">
         <f ca="1">O5+1</f>
-        <v>44579</v>
+        <v>44590</v>
       </c>
       <c r="Q5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44580</v>
+        <v>44591</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44581</v>
+        <v>44592</v>
       </c>
       <c r="S5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44582</v>
+        <v>44593</v>
       </c>
       <c r="T5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44583</v>
+        <v>44594</v>
       </c>
       <c r="U5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44584</v>
+        <v>44595</v>
       </c>
       <c r="V5" s="48">
         <f ca="1">U5+1</f>
-        <v>44585</v>
+        <v>44596</v>
       </c>
       <c r="W5" s="48">
         <f ca="1">V5+1</f>
-        <v>44586</v>
+        <v>44597</v>
       </c>
       <c r="X5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44598</v>
       </c>
       <c r="Y5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44599</v>
       </c>
       <c r="Z5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="AA5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44590</v>
+        <v>44601</v>
       </c>
       <c r="AB5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44591</v>
+        <v>44602</v>
       </c>
       <c r="AC5" s="48">
         <f ca="1">AB5+1</f>
-        <v>44592</v>
+        <v>44603</v>
       </c>
       <c r="AD5" s="48">
         <f ca="1">AC5+1</f>
-        <v>44593</v>
+        <v>44604</v>
       </c>
       <c r="AE5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44594</v>
+        <v>44605</v>
       </c>
       <c r="AF5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44595</v>
+        <v>44606</v>
       </c>
       <c r="AG5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44596</v>
+        <v>44607</v>
       </c>
       <c r="AH5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44597</v>
+        <v>44608</v>
       </c>
       <c r="AI5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44598</v>
+        <v>44609</v>
       </c>
       <c r="AJ5" s="48">
         <f ca="1">AI5+1</f>
-        <v>44599</v>
+        <v>44610</v>
       </c>
       <c r="AK5" s="48">
         <f ca="1">AJ5+1</f>
-        <v>44600</v>
+        <v>44611</v>
       </c>
       <c r="AL5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44601</v>
+        <v>44612</v>
       </c>
       <c r="AM5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44602</v>
+        <v>44613</v>
       </c>
       <c r="AN5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44603</v>
+        <v>44614</v>
       </c>
       <c r="AO5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44604</v>
+        <v>44615</v>
       </c>
       <c r="AP5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44605</v>
+        <v>44616</v>
       </c>
       <c r="AQ5" s="48">
         <f ca="1">AP5+1</f>
-        <v>44606</v>
+        <v>44617</v>
       </c>
       <c r="AR5" s="48">
         <f ca="1">AQ5+1</f>
-        <v>44607</v>
+        <v>44618</v>
       </c>
       <c r="AS5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44608</v>
+        <v>44619</v>
       </c>
       <c r="AT5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
       <c r="AU5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44610</v>
+        <v>44621</v>
       </c>
       <c r="AV5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44611</v>
+        <v>44622</v>
       </c>
       <c r="AW5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44612</v>
+        <v>44623</v>
       </c>
       <c r="AX5" s="48">
         <f ca="1">AW5+1</f>
-        <v>44613</v>
+        <v>44624</v>
       </c>
       <c r="AY5" s="48">
         <f ca="1">AX5+1</f>
-        <v>44614</v>
+        <v>44625</v>
       </c>
       <c r="AZ5" s="48">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="BA5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44616</v>
+        <v>44627</v>
       </c>
       <c r="BB5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44617</v>
+        <v>44628</v>
       </c>
       <c r="BC5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44629</v>
       </c>
       <c r="BD5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44619</v>
+        <v>44630</v>
       </c>
       <c r="BE5" s="48">
         <f ca="1">BD5+1</f>
-        <v>44620</v>
+        <v>44631</v>
       </c>
       <c r="BF5" s="48">
         <f ca="1">BE5+1</f>
-        <v>44621</v>
+        <v>44632</v>
       </c>
       <c r="BG5" s="48">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44622</v>
+        <v>44633</v>
       </c>
       <c r="BH5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44623</v>
+        <v>44634</v>
       </c>
       <c r="BI5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44624</v>
+        <v>44635</v>
       </c>
       <c r="BJ5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="BK5" s="49">
         <f t="shared" ca="1" si="2"/>
-        <v>44626</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2478,227 +2489,227 @@
       <c r="G6" s="21"/>
       <c r="H6" s="39" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="I6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="J6" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="K6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="L6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="M6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="N6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="O6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="P6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="Q6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="R6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="S6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="T6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="U6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="V6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="W6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="X6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="Y6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="Z6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AA6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AB6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AC6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AD6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AE6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AF6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AG6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AH6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AI6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AJ6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AK6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AL6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AM6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AN6" s="41" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AO6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AP6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AQ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AR6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AS6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AT6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AU6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AV6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AW6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AX6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AY6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AZ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BA6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BB6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BC6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BD6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BE6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BF6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BG6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BH6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BI6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BJ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BK6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3785,9 +3796,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -4028,9 +4039,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
@@ -5227,9 +5238,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
@@ -5429,7 +5440,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="53">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="24">
         <v>44586</v>
@@ -5670,7 +5681,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="24">
         <v>44586</v>
@@ -6142,7 +6153,7 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>42</v>
@@ -6153,237 +6164,239 @@
       <c r="E22" s="24">
         <v>44593</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="45">
+        <v>9</v>
+      </c>
       <c r="G22" s="20"/>
       <c r="H22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK22" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C23" s="54" t="s">
         <v>42</v>
@@ -6394,7 +6407,9 @@
       <c r="E23" s="24">
         <v>44593</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="45">
+        <v>9</v>
+      </c>
       <c r="G23" s="20"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -6462,235 +6477,237 @@
         <v>45</v>
       </c>
       <c r="D24" s="53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E24" s="24">
         <v>44593</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="45">
+        <v>9</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK24" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -7425,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="24">
-        <v>44628</v>
+        <v>44607</v>
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="20"/>
@@ -8859,255 +8876,257 @@
       <c r="A34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>53</v>
+      <c r="B34" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="24">
         <v>44600</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="45">
+        <v>1</v>
+      </c>
       <c r="G34" s="20"/>
       <c r="H34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="AA34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK34" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
-      <c r="B35" s="51" t="s">
-        <v>54</v>
+      <c r="B35" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="24">
         <v>44600</v>
@@ -9341,17 +9360,17 @@
     </row>
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
-      <c r="B36" s="51" t="s">
-        <v>55</v>
+      <c r="B36" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C36" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E36" s="24">
-        <v>44628</v>
+        <v>44600</v>
       </c>
       <c r="F36" s="45"/>
       <c r="G36" s="20"/>
@@ -9582,8 +9601,8 @@
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
-      <c r="B37" s="51" t="s">
-        <v>56</v>
+      <c r="B37" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>42</v>
@@ -9821,10 +9840,10 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
-      <c r="B38" s="51" t="s">
-        <v>57</v>
+      <c r="B38" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>42</v>
@@ -9833,245 +9852,81 @@
         <v>0</v>
       </c>
       <c r="E38" s="24">
-        <v>44642</v>
+        <v>44635</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK38" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="27"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="27"/>
+      <c r="AQ38" s="27"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="27"/>
+      <c r="AT38" s="27"/>
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="27"/>
+      <c r="AW38" s="27"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="27"/>
+      <c r="BA38" s="27"/>
+      <c r="BB38" s="27"/>
+      <c r="BC38" s="27"/>
+      <c r="BD38" s="27"/>
+      <c r="BE38" s="27"/>
+      <c r="BF38" s="27"/>
+      <c r="BG38" s="27"/>
+      <c r="BH38" s="27"/>
+      <c r="BI38" s="27"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="27"/>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
-      <c r="B39" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="53">
+        <v>0</v>
+      </c>
+      <c r="E39" s="24">
+        <v>44642</v>
+      </c>
       <c r="F39" s="45"/>
       <c r="G39" s="20"/>
       <c r="H39" s="27" t="str">
@@ -10299,20 +10154,16 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
-      <c r="B40" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="53">
-        <v>0</v>
-      </c>
-      <c r="E40" s="24">
-        <v>44628</v>
-      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="45"/>
       <c r="G40" s="20"/>
       <c r="H40" s="27" t="str">
@@ -10540,10 +10391,10 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C41" s="54" t="s">
         <v>41</v>
@@ -10552,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="24">
-        <v>44635</v>
+        <v>44628</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="20"/>
@@ -10781,10 +10632,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>41</v>
@@ -10793,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="24">
-        <v>44642</v>
+        <v>44635</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="20"/>
@@ -11022,10 +10873,10 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="51" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>41</v>
@@ -11034,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="24">
-        <v>44649</v>
+        <v>44642</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="20"/>
@@ -11263,10 +11114,10 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:63" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
       <c r="B44" s="51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C44" s="54" t="s">
         <v>41</v>
@@ -11275,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="24">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="20"/>
@@ -11504,80 +11355,321 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="12"/>
+      <c r="B45" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="53">
+        <v>0</v>
+      </c>
+      <c r="E45" s="24">
+        <v>44656</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK45" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="26"/>
-      <c r="AO45" s="26"/>
-      <c r="AP45" s="26"/>
-      <c r="AQ45" s="26"/>
-      <c r="AR45" s="26"/>
-      <c r="AS45" s="26"/>
-      <c r="AT45" s="26"/>
-      <c r="AU45" s="26"/>
-      <c r="AV45" s="26"/>
-      <c r="AW45" s="26"/>
-      <c r="AX45" s="26"/>
-      <c r="AY45" s="26"/>
-      <c r="AZ45" s="26"/>
-      <c r="BA45" s="26"/>
-      <c r="BB45" s="26"/>
-      <c r="BC45" s="26"/>
-      <c r="BD45" s="26"/>
-      <c r="BE45" s="26"/>
-      <c r="BF45" s="26"/>
-      <c r="BG45" s="26"/>
-      <c r="BH45" s="26"/>
-      <c r="BI45" s="26"/>
-      <c r="BJ45" s="26"/>
-      <c r="BK45" s="26"/>
-    </row>
-    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="5"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="4"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="26"/>
+      <c r="AN46" s="26"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="26"/>
+      <c r="AR46" s="26"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="26"/>
+      <c r="AU46" s="26"/>
+      <c r="AV46" s="26"/>
+      <c r="AW46" s="26"/>
+      <c r="AX46" s="26"/>
+      <c r="AY46" s="26"/>
+      <c r="AZ46" s="26"/>
+      <c r="BA46" s="26"/>
+      <c r="BB46" s="26"/>
+      <c r="BC46" s="26"/>
+      <c r="BD46" s="26"/>
+      <c r="BE46" s="26"/>
+      <c r="BF46" s="26"/>
+      <c r="BG46" s="26"/>
+      <c r="BH46" s="26"/>
+      <c r="BI46" s="26"/>
+      <c r="BJ46" s="26"/>
+      <c r="BK46" s="26"/>
     </row>
     <row r="47" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11600,12 +11692,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK26 H38:BK42">
+  <conditionalFormatting sqref="H8:BK26 H39:BK43">
     <cfRule type="expression" dxfId="12" priority="134">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK44">
+  <conditionalFormatting sqref="H7:BK45">
     <cfRule type="expression" dxfId="11" priority="67" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
@@ -11644,7 +11736,7 @@
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11663,17 +11755,17 @@
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:BK37">
+  <conditionalFormatting sqref="H37:BK38">
     <cfRule type="expression" dxfId="5" priority="32">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44:BK44">
+  <conditionalFormatting sqref="H45:BK45">
     <cfRule type="expression" dxfId="4" priority="29">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:BK43">
+  <conditionalFormatting sqref="H44:BK44">
     <cfRule type="expression" dxfId="3" priority="20">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
@@ -11804,7 +11896,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D37:D38">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11818,7 +11910,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11832,7 +11924,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11846,7 +11938,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11860,7 +11952,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11874,7 +11966,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11888,7 +11980,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11992,7 +12084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{043EBCC9-B287-4EA6-BDA9-2E16BDC9759A}">
@@ -12142,7 +12234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D37:D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1E97FEDC-51B3-46F5-8E26-D2A828CCBF5F}">
@@ -12157,7 +12249,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B15BCFE3-A0D6-4EDD-B84F-B9C426FCE793}">
@@ -12172,7 +12264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D707E3CF-0745-473D-92EE-EE111CA40965}">
@@ -12187,7 +12279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22B7C3E7-2D70-48A1-A6D1-800C4BE90DEE}">
@@ -12202,7 +12294,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51A57E48-4C06-46CF-85E4-B0DC3E5346C6}">
@@ -12217,7 +12309,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7F2D11D8-92EC-4AC0-8701-9572500C5E36}">
@@ -12232,7 +12324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="58" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -12346,7 +12438,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H37:BK37</xm:sqref>
+          <xm:sqref>H37:BK38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="30" id="{588837EF-B611-43B4-BF44-6E6E3217648A}">
@@ -12365,7 +12457,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H44:BK44</xm:sqref>
+          <xm:sqref>H45:BK45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="21" id="{C723BF28-69C0-4A12-BCFF-910A4C9C9732}">
@@ -12384,7 +12476,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H43:BK43</xm:sqref>
+          <xm:sqref>H44:BK44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="157" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -12422,7 +12514,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H38:BK42</xm:sqref>
+          <xm:sqref>H39:BK43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C2F2D8-FBF7-4074-92AB-ED7086DE49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81494EF-4FA4-4094-9C34-7EEFCC85EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Valider le traitement proposé par une infirmière à un nouveau patient hospitalisé</t>
+  </si>
+  <si>
+    <t>IBRAHIM &amp; IMAN</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1716,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="17"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="28"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,7 +1732,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>185739</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2064,14 +2067,14 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="47.06640625" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="20.53125" customWidth="1"/>
     <col min="4" max="4" width="12.796875" customWidth="1"/>
     <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
@@ -2128,7 +2131,7 @@
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="36">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
@@ -2157,7 +2160,7 @@
       </c>
       <c r="H4" s="17" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
-        <v>janvier</v>
+        <v>février</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2177,7 +2180,7 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(V5,"mmmm")=O4,TEXT(V5,"mmmm")=H4),"",TEXT(V5,"mmmm"))</f>
-        <v>février</v>
+        <v/>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -2197,7 +2200,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v/>
+        <v>mars</v>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2217,7 +2220,7 @@
       <c r="AW4" s="17"/>
       <c r="AX4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AX5,"mmmm")=AQ4,TEXT(AX5,"mmmm")=AJ4,TEXT(AX5,"mmmm")=AC4,TEXT(AX5,"mmmm")=V4),"",TEXT(AX5,"mmmm"))</f>
-        <v>mars</v>
+        <v/>
       </c>
       <c r="AY4" s="17"/>
       <c r="AZ4" s="17"/>
@@ -2244,227 +2247,227 @@
       <c r="G5" s="32"/>
       <c r="H5" s="46">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44582</v>
+        <v>44593</v>
       </c>
       <c r="I5" s="47">
         <f ca="1">H5+1</f>
-        <v>44583</v>
+        <v>44594</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44584</v>
+        <v>44595</v>
       </c>
       <c r="K5" s="48">
         <f ca="1">J5+1</f>
-        <v>44585</v>
+        <v>44596</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44597</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44598</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44599</v>
       </c>
       <c r="O5" s="48">
         <f ca="1">N5+1</f>
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="P5" s="48">
         <f ca="1">O5+1</f>
-        <v>44590</v>
+        <v>44601</v>
       </c>
       <c r="Q5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44591</v>
+        <v>44602</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44592</v>
+        <v>44603</v>
       </c>
       <c r="S5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44593</v>
+        <v>44604</v>
       </c>
       <c r="T5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44594</v>
+        <v>44605</v>
       </c>
       <c r="U5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44595</v>
+        <v>44606</v>
       </c>
       <c r="V5" s="48">
         <f ca="1">U5+1</f>
-        <v>44596</v>
+        <v>44607</v>
       </c>
       <c r="W5" s="48">
         <f ca="1">V5+1</f>
-        <v>44597</v>
+        <v>44608</v>
       </c>
       <c r="X5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44598</v>
+        <v>44609</v>
       </c>
       <c r="Y5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44599</v>
+        <v>44610</v>
       </c>
       <c r="Z5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44600</v>
+        <v>44611</v>
       </c>
       <c r="AA5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44601</v>
+        <v>44612</v>
       </c>
       <c r="AB5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44602</v>
+        <v>44613</v>
       </c>
       <c r="AC5" s="48">
         <f ca="1">AB5+1</f>
-        <v>44603</v>
+        <v>44614</v>
       </c>
       <c r="AD5" s="48">
         <f ca="1">AC5+1</f>
-        <v>44604</v>
+        <v>44615</v>
       </c>
       <c r="AE5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44605</v>
+        <v>44616</v>
       </c>
       <c r="AF5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44606</v>
+        <v>44617</v>
       </c>
       <c r="AG5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44607</v>
+        <v>44618</v>
       </c>
       <c r="AH5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44608</v>
+        <v>44619</v>
       </c>
       <c r="AI5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
       <c r="AJ5" s="48">
         <f ca="1">AI5+1</f>
-        <v>44610</v>
+        <v>44621</v>
       </c>
       <c r="AK5" s="48">
         <f ca="1">AJ5+1</f>
-        <v>44611</v>
+        <v>44622</v>
       </c>
       <c r="AL5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44612</v>
+        <v>44623</v>
       </c>
       <c r="AM5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44613</v>
+        <v>44624</v>
       </c>
       <c r="AN5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44614</v>
+        <v>44625</v>
       </c>
       <c r="AO5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="AP5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44616</v>
+        <v>44627</v>
       </c>
       <c r="AQ5" s="48">
         <f ca="1">AP5+1</f>
-        <v>44617</v>
+        <v>44628</v>
       </c>
       <c r="AR5" s="48">
         <f ca="1">AQ5+1</f>
-        <v>44618</v>
+        <v>44629</v>
       </c>
       <c r="AS5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44619</v>
+        <v>44630</v>
       </c>
       <c r="AT5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44620</v>
+        <v>44631</v>
       </c>
       <c r="AU5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44621</v>
+        <v>44632</v>
       </c>
       <c r="AV5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44622</v>
+        <v>44633</v>
       </c>
       <c r="AW5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44634</v>
       </c>
       <c r="AX5" s="48">
         <f ca="1">AW5+1</f>
-        <v>44624</v>
+        <v>44635</v>
       </c>
       <c r="AY5" s="48">
         <f ca="1">AX5+1</f>
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="AZ5" s="48">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44626</v>
+        <v>44637</v>
       </c>
       <c r="BA5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44627</v>
+        <v>44638</v>
       </c>
       <c r="BB5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44639</v>
       </c>
       <c r="BC5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44640</v>
       </c>
       <c r="BD5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44630</v>
+        <v>44641</v>
       </c>
       <c r="BE5" s="48">
         <f ca="1">BD5+1</f>
-        <v>44631</v>
+        <v>44642</v>
       </c>
       <c r="BF5" s="48">
         <f ca="1">BE5+1</f>
-        <v>44632</v>
+        <v>44643</v>
       </c>
       <c r="BG5" s="48">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44633</v>
+        <v>44644</v>
       </c>
       <c r="BH5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
       <c r="BI5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44635</v>
+        <v>44646</v>
       </c>
       <c r="BJ5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44636</v>
+        <v>44647</v>
       </c>
       <c r="BK5" s="49">
         <f t="shared" ca="1" si="2"/>
-        <v>44637</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2489,227 +2492,227 @@
       <c r="G6" s="21"/>
       <c r="H6" s="39" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="I6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="J6" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="K6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="L6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="M6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="N6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="O6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="P6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="Q6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="R6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="S6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="T6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="U6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="V6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="W6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="X6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="Y6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="Z6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AA6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AB6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AC6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AD6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AE6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AF6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AG6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AH6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AI6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AJ6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AK6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AL6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AM6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AN6" s="41" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AO6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AP6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AQ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AR6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AS6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AT6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AU6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AV6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AW6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AX6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AY6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AZ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BA6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BB6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BC6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BD6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BE6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BF6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BG6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BH6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BI6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BJ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BK6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4475,7 +4478,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D15" s="53">
         <v>0</v>
@@ -5681,7 +5684,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="24">
         <v>44586</v>
@@ -6961,7 +6964,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="53">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="24">
         <v>44600</v>
@@ -8920,9 +8923,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O34" s="27" t="str">
+      <c r="O34" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P34" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
@@ -8964,9 +8967,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z34" s="27">
+      <c r="Z34" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AA34" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
@@ -9608,7 +9611,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="53">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E37" s="24">
         <v>44635</v>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81494EF-4FA4-4094-9C34-7EEFCC85EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B4CEA7-2E2E-43F1-B8E8-9C09E6BEA3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,7 +1732,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185739</xdr:colOff>
+          <xdr:colOff>185738</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2067,8 +2067,8 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9370,7 +9370,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E36" s="24">
         <v>44600</v>
@@ -11358,7 +11358,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:63" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
       <c r="B45" s="51" t="s">
         <v>58</v>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B4CEA7-2E2E-43F1-B8E8-9C09E6BEA3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D22517-39D9-4200-961A-44363B02742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,21 +166,6 @@
     <t>Accès aux données voulues</t>
   </si>
   <si>
-    <t>Création de compte</t>
-  </si>
-  <si>
-    <t>Création/Modification/Visualisation du dossier d'admission</t>
-  </si>
-  <si>
-    <t>Prise de RDV avec le médecin</t>
-  </si>
-  <si>
-    <t>Visualisation des RDV</t>
-  </si>
-  <si>
-    <t>Annulation des RDV possible jusqu'à la veille du RDV</t>
-  </si>
-  <si>
     <t>"</t>
   </si>
   <si>
@@ -270,6 +255,21 @@
   <si>
     <t>IBRAHIM &amp; IMAN</t>
   </si>
+  <si>
+    <t>Ajout, modification, suppression d’un produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiche de toxicité des produits </t>
+  </si>
+  <si>
+    <t>Gestion de commande des stocks (entrées et sorties)</t>
+  </si>
+  <si>
+    <t>Envoie de mail(notification) quand le stock principal est faible</t>
+  </si>
+  <si>
+    <t>Création du profil gestionnaire de stock</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +281,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -505,6 +505,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1084,7 +1095,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1253,6 +1264,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1716,7 +1733,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="28"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="41"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2067,8 +2084,8 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2089,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -2102,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="59" t="s">
         <v>10</v>
@@ -2124,14 +2141,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="36">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
@@ -2145,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>12</v>
@@ -2190,7 +2207,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v/>
+        <v>mars</v>
       </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
@@ -2200,7 +2217,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v>mars</v>
+        <v/>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2230,7 +2247,7 @@
       <c r="BD4" s="17"/>
       <c r="BE4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
-        <v/>
+        <v>avril</v>
       </c>
       <c r="BF4" s="17"/>
       <c r="BG4" s="17"/>
@@ -2247,227 +2264,227 @@
       <c r="G5" s="32"/>
       <c r="H5" s="46">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44593</v>
+        <v>44606</v>
       </c>
       <c r="I5" s="47">
         <f ca="1">H5+1</f>
-        <v>44594</v>
+        <v>44607</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44595</v>
+        <v>44608</v>
       </c>
       <c r="K5" s="48">
         <f ca="1">J5+1</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44597</v>
+        <v>44610</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44598</v>
+        <v>44611</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44599</v>
+        <v>44612</v>
       </c>
       <c r="O5" s="48">
         <f ca="1">N5+1</f>
-        <v>44600</v>
+        <v>44613</v>
       </c>
       <c r="P5" s="48">
         <f ca="1">O5+1</f>
-        <v>44601</v>
+        <v>44614</v>
       </c>
       <c r="Q5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44602</v>
+        <v>44615</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44603</v>
+        <v>44616</v>
       </c>
       <c r="S5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44604</v>
+        <v>44617</v>
       </c>
       <c r="T5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44605</v>
+        <v>44618</v>
       </c>
       <c r="U5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44606</v>
+        <v>44619</v>
       </c>
       <c r="V5" s="48">
         <f ca="1">U5+1</f>
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="W5" s="48">
         <f ca="1">V5+1</f>
-        <v>44608</v>
+        <v>44621</v>
       </c>
       <c r="X5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44609</v>
+        <v>44622</v>
       </c>
       <c r="Y5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44610</v>
+        <v>44623</v>
       </c>
       <c r="Z5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44611</v>
+        <v>44624</v>
       </c>
       <c r="AA5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44612</v>
+        <v>44625</v>
       </c>
       <c r="AB5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44613</v>
+        <v>44626</v>
       </c>
       <c r="AC5" s="48">
         <f ca="1">AB5+1</f>
-        <v>44614</v>
+        <v>44627</v>
       </c>
       <c r="AD5" s="48">
         <f ca="1">AC5+1</f>
-        <v>44615</v>
+        <v>44628</v>
       </c>
       <c r="AE5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44616</v>
+        <v>44629</v>
       </c>
       <c r="AF5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44617</v>
+        <v>44630</v>
       </c>
       <c r="AG5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44618</v>
+        <v>44631</v>
       </c>
       <c r="AH5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44619</v>
+        <v>44632</v>
       </c>
       <c r="AI5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44620</v>
+        <v>44633</v>
       </c>
       <c r="AJ5" s="48">
         <f ca="1">AI5+1</f>
-        <v>44621</v>
+        <v>44634</v>
       </c>
       <c r="AK5" s="48">
         <f ca="1">AJ5+1</f>
-        <v>44622</v>
+        <v>44635</v>
       </c>
       <c r="AL5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44636</v>
       </c>
       <c r="AM5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44637</v>
       </c>
       <c r="AN5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44638</v>
       </c>
       <c r="AO5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="AP5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44627</v>
+        <v>44640</v>
       </c>
       <c r="AQ5" s="48">
         <f ca="1">AP5+1</f>
-        <v>44628</v>
+        <v>44641</v>
       </c>
       <c r="AR5" s="48">
         <f ca="1">AQ5+1</f>
-        <v>44629</v>
+        <v>44642</v>
       </c>
       <c r="AS5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44643</v>
       </c>
       <c r="AT5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44644</v>
       </c>
       <c r="AU5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44645</v>
       </c>
       <c r="AV5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44646</v>
       </c>
       <c r="AW5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>44634</v>
+        <v>44647</v>
       </c>
       <c r="AX5" s="48">
         <f ca="1">AW5+1</f>
-        <v>44635</v>
+        <v>44648</v>
       </c>
       <c r="AY5" s="48">
         <f ca="1">AX5+1</f>
-        <v>44636</v>
+        <v>44649</v>
       </c>
       <c r="AZ5" s="48">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44637</v>
+        <v>44650</v>
       </c>
       <c r="BA5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44638</v>
+        <v>44651</v>
       </c>
       <c r="BB5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="BC5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="BD5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>44641</v>
+        <v>44654</v>
       </c>
       <c r="BE5" s="48">
         <f ca="1">BD5+1</f>
-        <v>44642</v>
+        <v>44655</v>
       </c>
       <c r="BF5" s="48">
         <f ca="1">BE5+1</f>
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="BG5" s="48">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="BH5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44645</v>
+        <v>44658</v>
       </c>
       <c r="BI5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44646</v>
+        <v>44659</v>
       </c>
       <c r="BJ5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44647</v>
+        <v>44660</v>
       </c>
       <c r="BK5" s="49">
         <f t="shared" ca="1" si="2"/>
-        <v>44648</v>
+        <v>44661</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2492,7 +2509,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="39" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="I6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2500,27 +2517,27 @@
       </c>
       <c r="J6" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="K6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="L6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="M6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="N6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="O6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="P6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2528,27 +2545,27 @@
       </c>
       <c r="Q6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="R6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="S6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="T6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="U6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="V6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="W6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2556,27 +2573,27 @@
       </c>
       <c r="X6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="Y6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="Z6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AA6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AB6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AC6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AD6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2584,27 +2601,27 @@
       </c>
       <c r="AE6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AF6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AG6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AH6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AI6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AJ6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AK6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2612,27 +2629,27 @@
       </c>
       <c r="AL6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AM6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AN6" s="41" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AO6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AP6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AQ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AR6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2640,27 +2657,27 @@
       </c>
       <c r="AS6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AT6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AU6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AV6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AW6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AX6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AY6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2668,27 +2685,27 @@
       </c>
       <c r="AZ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BA6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BB6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BC6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BD6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BE6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BF6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2696,23 +2713,23 @@
       </c>
       <c r="BG6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BH6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BI6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BJ6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BK6" s="41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>d</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2789,7 +2806,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="24"/>
@@ -3026,7 +3043,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="53">
         <v>1</v>
@@ -3269,7 +3286,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="53">
         <v>1</v>
@@ -3512,7 +3529,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="53">
         <v>1</v>
@@ -3755,7 +3772,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="53">
         <v>1</v>
@@ -3998,7 +4015,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" s="53">
         <v>1</v>
@@ -4238,10 +4255,10 @@
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="55" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="24"/>
@@ -4475,10 +4492,10 @@
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" s="53">
         <v>0</v>
@@ -4716,10 +4733,10 @@
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="53">
         <v>0</v>
@@ -4960,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="24"/>
@@ -5197,7 +5214,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D18" s="53">
         <v>1</v>
@@ -5440,7 +5457,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19" s="53">
         <v>0.9</v>
@@ -5678,10 +5695,10 @@
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" s="53">
         <v>0.2</v>
@@ -5922,7 +5939,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="24"/>
@@ -6156,10 +6173,10 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="53">
         <v>1</v>
@@ -6399,10 +6416,10 @@
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="53">
         <v>1</v>
@@ -6477,7 +6494,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D24" s="53">
         <v>1</v>
@@ -6720,7 +6737,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D25" s="53">
         <v>0</v>
@@ -6961,7 +6978,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26" s="53">
         <v>0.5</v>
@@ -7199,10 +7216,10 @@
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="24"/>
@@ -7435,258 +7452,260 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="50" t="s">
-        <v>34</v>
+      <c r="B28" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D28" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="24">
-        <v>44607</v>
-      </c>
-      <c r="F28" s="45"/>
+        <v>44620</v>
+      </c>
+      <c r="F28" s="45">
+        <v>1</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V28" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="W28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK28" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
-      <c r="B29" s="50" t="s">
-        <v>35</v>
+      <c r="B29" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D29" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E29" s="24">
-        <v>44628</v>
+        <v>44620</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="20"/>
@@ -7917,11 +7936,11 @@
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
-      <c r="B30" s="50" t="s">
-        <v>36</v>
+      <c r="B30" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D30" s="53">
         <v>0</v>
@@ -8158,11 +8177,11 @@
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
-      <c r="B31" s="50" t="s">
-        <v>37</v>
+      <c r="B31" s="65" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D31" s="53">
         <v>0</v>
@@ -8399,11 +8418,11 @@
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>38</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>43</v>
       </c>
       <c r="D32" s="53">
         <v>0</v>
@@ -8641,10 +8660,10 @@
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
       <c r="B33" s="55" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D33" s="53"/>
       <c r="E33" s="24"/>
@@ -8877,13 +8896,13 @@
     </row>
     <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D34" s="53">
         <v>1</v>
@@ -8923,9 +8942,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O34" s="27">
+      <c r="O34" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P34" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
@@ -9123,13 +9142,13 @@
     <row r="35" spans="1:63" s="2" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D35" s="53">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="24">
         <v>44600</v>
@@ -9364,10 +9383,10 @@
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D36" s="53">
         <v>0.4</v>
@@ -9605,251 +9624,253 @@
     <row r="37" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="58" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D37" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E37" s="24">
-        <v>44635</v>
-      </c>
-      <c r="F37" s="45"/>
+        <v>44607</v>
+      </c>
+      <c r="F37" s="45">
+        <v>16</v>
+      </c>
       <c r="G37" s="20"/>
       <c r="H37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK37" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
       <c r="B38" s="58" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D38" s="53">
         <v>0</v>
@@ -9919,251 +9940,253 @@
     <row r="39" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D39" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="24">
-        <v>44642</v>
-      </c>
-      <c r="F39" s="45"/>
+        <v>44620</v>
+      </c>
+      <c r="F39" s="45">
+        <v>1</v>
+      </c>
       <c r="G39" s="20"/>
       <c r="H39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V39" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="W39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK39" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D40" s="53"/>
       <c r="E40" s="24"/>
@@ -10397,10 +10420,10 @@
     <row r="41" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D41" s="53">
         <v>0</v>
@@ -10638,10 +10661,10 @@
     <row r="42" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D42" s="53">
         <v>0</v>
@@ -10879,10 +10902,10 @@
     <row r="43" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="51" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D43" s="53">
         <v>0</v>
@@ -11120,10 +11143,10 @@
     <row r="44" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
       <c r="B44" s="51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D44" s="53">
         <v>0</v>
@@ -11361,10 +11384,10 @@
     <row r="45" spans="1:63" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
       <c r="B45" s="51" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D45" s="53">
         <v>0</v>

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D22517-39D9-4200-961A-44363B02742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC343A-3516-4783-849A-5E8DE48ED806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1095,7 +1095,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1222,12 +1222,6 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1238,15 +1232,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1264,12 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1336,7 +1335,7 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2084,8 +2083,8 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2121,14 +2120,14 @@
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62">
         <v>44565</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -2143,10 +2142,10 @@
       <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="36">
         <v>41</v>
       </c>
@@ -2161,13 +2160,13 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="37">
         <v>1</v>
       </c>
@@ -2736,9 +2735,9 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="H7" s="38"/>
@@ -2802,13 +2801,13 @@
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="24"/>
       <c r="F8" s="45"/>
       <c r="G8" s="20"/>
@@ -3039,13 +3038,13 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="51">
         <v>1</v>
       </c>
       <c r="E9" s="24">
@@ -3282,13 +3281,13 @@
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <v>1</v>
       </c>
       <c r="E10" s="24">
@@ -3525,13 +3524,13 @@
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="51">
         <v>1</v>
       </c>
       <c r="E11" s="24">
@@ -3768,13 +3767,13 @@
     </row>
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="51">
         <v>1</v>
       </c>
       <c r="E12" s="24">
@@ -4011,13 +4010,13 @@
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="51">
         <v>1</v>
       </c>
       <c r="E13" s="24">
@@ -4254,13 +4253,13 @@
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="53"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="24"/>
       <c r="F14" s="45"/>
       <c r="G14" s="20"/>
@@ -4491,13 +4490,13 @@
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <v>0</v>
       </c>
       <c r="E15" s="24">
@@ -4732,13 +4731,13 @@
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <v>0</v>
       </c>
       <c r="E16" s="24">
@@ -4973,13 +4972,13 @@
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="24"/>
       <c r="F17" s="45"/>
       <c r="G17" s="20"/>
@@ -5210,13 +5209,13 @@
     </row>
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>1</v>
       </c>
       <c r="E18" s="24">
@@ -5453,254 +5452,256 @@
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="53">
-        <v>0.9</v>
+      <c r="D19" s="51">
+        <v>1</v>
       </c>
       <c r="E19" s="24">
         <v>44586</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="45">
+        <v>38</v>
+      </c>
       <c r="G19" s="20"/>
       <c r="H19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK19" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="51">
         <v>0.2</v>
       </c>
       <c r="E20" s="24">
@@ -5935,13 +5936,13 @@
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="24"/>
       <c r="F21" s="45"/>
       <c r="G21" s="20"/>
@@ -6172,13 +6173,13 @@
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="51">
         <v>1</v>
       </c>
       <c r="E22" s="24">
@@ -6415,13 +6416,13 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="51">
         <v>1</v>
       </c>
       <c r="E23" s="24">
@@ -6490,13 +6491,13 @@
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="51">
         <v>1</v>
       </c>
       <c r="E24" s="24">
@@ -6733,13 +6734,13 @@
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="51">
         <v>0</v>
       </c>
       <c r="E25" s="24">
@@ -6974,14 +6975,14 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="53">
-        <v>0.5</v>
+      <c r="D26" s="51">
+        <v>0.7</v>
       </c>
       <c r="E26" s="24">
         <v>44600</v>
@@ -7215,13 +7216,13 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="24"/>
       <c r="F27" s="45"/>
       <c r="G27" s="20"/>
@@ -7452,13 +7453,13 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="51">
         <v>1</v>
       </c>
       <c r="E28" s="24">
@@ -7695,14 +7696,14 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="53">
-        <v>0.2</v>
+      <c r="D29" s="51">
+        <v>0.4</v>
       </c>
       <c r="E29" s="24">
         <v>44620</v>
@@ -7936,13 +7937,13 @@
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="51">
         <v>0</v>
       </c>
       <c r="E30" s="24">
@@ -8177,13 +8178,13 @@
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="51">
         <v>0</v>
       </c>
       <c r="E31" s="24">
@@ -8418,13 +8419,13 @@
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="51">
         <v>0</v>
       </c>
       <c r="E32" s="24">
@@ -8659,13 +8660,13 @@
     </row>
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="24"/>
       <c r="F33" s="45"/>
       <c r="G33" s="20"/>
@@ -8898,13 +8899,13 @@
       <c r="A34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="51">
         <v>1</v>
       </c>
       <c r="E34" s="24">
@@ -9141,13 +9142,13 @@
     </row>
     <row r="35" spans="1:63" s="2" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="51">
         <v>0.5</v>
       </c>
       <c r="E35" s="24">
@@ -9382,14 +9383,14 @@
     </row>
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="53">
-        <v>0.4</v>
+      <c r="D36" s="51">
+        <v>0.5</v>
       </c>
       <c r="E36" s="24">
         <v>44600</v>
@@ -9623,13 +9624,13 @@
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="51">
         <v>1</v>
       </c>
       <c r="E37" s="24">
@@ -9866,13 +9867,13 @@
     </row>
     <row r="38" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="51">
         <v>0</v>
       </c>
       <c r="E38" s="24">
@@ -9939,13 +9940,13 @@
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="51">
         <v>1</v>
       </c>
       <c r="E39" s="24">
@@ -10182,13 +10183,13 @@
     </row>
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="53"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="24"/>
       <c r="F40" s="45"/>
       <c r="G40" s="20"/>
@@ -10419,13 +10420,13 @@
     </row>
     <row r="41" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="51">
         <v>0</v>
       </c>
       <c r="E41" s="24">
@@ -10660,13 +10661,13 @@
     </row>
     <row r="42" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="51">
         <v>0</v>
       </c>
       <c r="E42" s="24">
@@ -10901,13 +10902,13 @@
     </row>
     <row r="43" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="51">
         <v>0</v>
       </c>
       <c r="E43" s="24">
@@ -11142,13 +11143,13 @@
     </row>
     <row r="44" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="51">
         <v>0</v>
       </c>
       <c r="E44" s="24">
@@ -11383,13 +11384,13 @@
     </row>
     <row r="45" spans="1:63" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="51">
         <v>0</v>
       </c>
       <c r="E45" s="24">

--- a/project/GanttV1.xlsx
+++ b/project/GanttV1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D79F7-E48E-4FB6-9FFA-24ACC142320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,9 +212,6 @@
     <t>Association chambre et patient</t>
   </si>
   <si>
-    <t>Création d'un traotement pour un patient</t>
-  </si>
-  <si>
     <t>Faire une demande pour une commande de médicament</t>
   </si>
   <si>
@@ -272,11 +268,14 @@
   <si>
     <t>IBRAHIM, QUENTIN</t>
   </si>
+  <si>
+    <t>Création d'un traitement pour un patient</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1266,7 +1265,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1288,7 +1287,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -1638,12 +1637,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="firstRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="totalRow" dxfId="21"/>
@@ -1747,11 +1746,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1794,8 +1793,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F45" totalsRowShown="0">
-  <autoFilter ref="B6:F45" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F45" totalsRowShown="0">
+  <autoFilter ref="B6:F45">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1803,11 +1802,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="3" name="Affecté à" dataDxfId="1"/>
+    <tableColumn id="4" name="Avancement" dataDxfId="0"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2080,30 +2079,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.2" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2115,7 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2159,12 +2158,12 @@
       <c r="L3" s="40"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>11</v>
@@ -2258,7 +2257,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2799,7 @@
       <c r="BJ7" s="34"/>
       <c r="BK7" s="34"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="53" t="s">
         <v>21</v>
@@ -3282,7 +3281,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="53" t="s">
         <v>22</v>
@@ -3525,7 +3524,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="53" t="s">
         <v>23</v>
@@ -3768,7 +3767,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="53" t="s">
         <v>24</v>
@@ -4011,7 +4010,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="53" t="s">
         <v>25</v>
@@ -4254,7 +4253,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="54" t="s">
         <v>41</v>
@@ -4491,248 +4490,250 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="23">
         <v>44656</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="41">
+        <v>1</v>
+      </c>
       <c r="G15" s="19"/>
       <c r="H15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF15" s="25">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="BG15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK15" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="53" t="s">
         <v>43</v>
@@ -4741,239 +4742,241 @@
         <v>36</v>
       </c>
       <c r="D16" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="23">
         <v>44656</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="41">
+        <v>1</v>
+      </c>
       <c r="G16" s="19"/>
       <c r="H16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF16" s="25">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="BG16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK16" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="54" t="s">
         <v>26</v>
@@ -5210,7 +5213,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="53" t="s">
         <v>27</v>
@@ -5453,7 +5456,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="53" t="s">
         <v>28</v>
@@ -5696,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="53" t="s">
         <v>44</v>
@@ -5710,234 +5713,236 @@
       <c r="E20" s="23">
         <v>44586</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="41">
+        <v>60</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK20" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="54" t="s">
         <v>29</v>
@@ -6174,10 +6179,10 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>36</v>
@@ -6417,10 +6422,10 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>36</v>
@@ -6492,7 +6497,7 @@
       <c r="BJ23" s="25"/>
       <c r="BK23" s="25"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="53" t="s">
         <v>30</v>
@@ -6735,7 +6740,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="53" t="s">
         <v>31</v>
@@ -6976,7 +6981,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="53" t="s">
         <v>32</v>
@@ -7217,7 +7222,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="54" t="s">
         <v>45</v>
@@ -7454,10 +7459,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="48" t="s">
         <v>37</v>
@@ -7697,10 +7702,10 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>37</v>
@@ -7711,719 +7716,725 @@
       <c r="E29" s="23">
         <v>44620</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="41">
+        <v>32</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK29" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="23">
         <v>44642</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="41">
+        <v>32</v>
+      </c>
       <c r="G30" s="19"/>
       <c r="H30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK30" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="23">
         <v>44642</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="41">
+        <v>32</v>
+      </c>
       <c r="G31" s="19"/>
       <c r="H31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>37</v>
@@ -8661,7 +8672,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="54" t="s">
         <v>46</v>
@@ -8898,12 +8909,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>36</v>
@@ -9143,251 +9154,253 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="47">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E35" s="23">
         <v>44600</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41">
+        <v>28</v>
+      </c>
       <c r="G35" s="19"/>
       <c r="H35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>36</v>
@@ -9398,237 +9411,239 @@
       <c r="E36" s="23">
         <v>44600</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="41">
+        <v>28</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>36</v>
@@ -9868,10 +9883,10 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>36</v>
@@ -9941,10 +9956,10 @@
       <c r="BJ38" s="25"/>
       <c r="BK38" s="25"/>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>36</v>
@@ -10184,7 +10199,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="54" t="s">
         <v>47</v>
@@ -10421,7 +10436,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="53" t="s">
         <v>48</v>
@@ -10430,239 +10445,241 @@
         <v>35</v>
       </c>
       <c r="D41" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="23">
         <v>44628</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="41">
+        <v>1</v>
+      </c>
       <c r="G41" s="19"/>
       <c r="H41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="25">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="AE41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK41" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:63" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="53" t="s">
         <v>49</v>
@@ -10671,489 +10688,493 @@
         <v>35</v>
       </c>
       <c r="D42" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="23">
         <v>44635</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="41">
+        <v>1</v>
+      </c>
       <c r="G42" s="19"/>
       <c r="H42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK42" s="25">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="AL42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK42" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:63" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="53" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="23">
         <v>44642</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="41">
+        <v>1</v>
+      </c>
       <c r="G43" s="19"/>
       <c r="H43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR43" s="25">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="AS43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK43" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:63" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E44" s="23">
         <v>44649</v>
@@ -11385,254 +11406,256 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:63" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="23">
         <v>44656</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="41">
+        <v>1</v>
+      </c>
       <c r="G45" s="19"/>
       <c r="H45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF45" s="25">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="BG45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK45" s="25" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:63" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:63" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="49" t="s">
         <v>68</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>69</v>
       </c>
       <c r="D46" s="47">
         <v>1</v>
@@ -11867,12 +11890,12 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="6"/>
     </row>
   </sheetData>
@@ -12223,7 +12246,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -12247,11 +12270,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -12785,33 +12808,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.2" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
